--- a/Project/Home work.xlsx
+++ b/Project/Home work.xlsx
@@ -12,7 +12,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -199,9 +198,6 @@
     <t>while clicking on the button it is back to product page.</t>
   </si>
   <si>
-    <t>while clicking on it work same as from 211 to 212.</t>
-  </si>
-  <si>
     <t>check add to product</t>
   </si>
   <si>
@@ -214,24 +210,12 @@
     <t>while clicking to remove product it doest not work to remove product.</t>
   </si>
   <si>
-    <t>same as 210 to 215</t>
-  </si>
-  <si>
-    <t>while clicking on it works as same from 210 to 215.</t>
-  </si>
-  <si>
     <t>check next product second line image</t>
   </si>
   <si>
     <t>while clicking on add to cart does not work add to cart.</t>
   </si>
   <si>
-    <t>same as 217 and 218</t>
-  </si>
-  <si>
-    <t>while clicking on its works as same from 217 and 218..</t>
-  </si>
-  <si>
     <t xml:space="preserve">check about menu </t>
   </si>
   <si>
@@ -260,6 +244,21 @@
   </si>
   <si>
     <t>same as 1404 and 1405</t>
+  </si>
+  <si>
+    <t>while clicking on it work same as from 2211 to 2212.</t>
+  </si>
+  <si>
+    <t>while clicking on it works as same from 2210 to 2215.</t>
+  </si>
+  <si>
+    <t>while clicking on its works as same from 2217 and 2218..</t>
+  </si>
+  <si>
+    <t>same as 2210 to 2215</t>
+  </si>
+  <si>
+    <t>same as 2217 and 2218</t>
   </si>
 </sst>
 </file>
@@ -653,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D773"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -824,7 +823,7 @@
         <v>406</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>59</v>
@@ -1021,7 +1020,7 @@
         <v>1205</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>12</v>
@@ -1112,7 +1111,7 @@
         <v>29</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="18.75">
@@ -1120,10 +1119,10 @@
         <v>2214</v>
       </c>
       <c r="B43" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="18.75">
@@ -1131,10 +1130,10 @@
         <v>2215</v>
       </c>
       <c r="B44" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="18.75">
@@ -1142,10 +1141,10 @@
         <v>2216</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="18.75">
@@ -1153,7 +1152,7 @@
         <v>2217</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>56</v>
@@ -1167,7 +1166,7 @@
         <v>17</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="18.75">
@@ -1175,15 +1174,15 @@
         <v>2219</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="18.75">
       <c r="A49" s="4">
-        <v>20</v>
+        <v>2220</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>46</v>
@@ -1194,7 +1193,7 @@
     </row>
     <row r="50" spans="1:3" ht="18.75">
       <c r="A50" s="4">
-        <v>21</v>
+        <v>2221</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>48</v>
@@ -1265,7 +1264,7 @@
         <v>11</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="18.75">
@@ -1361,7 +1360,7 @@
         <v>1406</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>59</v>
@@ -1375,7 +1374,7 @@
         <v>29</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="18.75">
@@ -1383,10 +1382,10 @@
         <v>1408</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="18.75">
@@ -1427,10 +1426,10 @@
         <v>1412</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="18.75">
@@ -1438,10 +1437,10 @@
         <v>1413</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="18.75">
